--- a/library/library_3275.xlsx
+++ b/library/library_3275.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBC566F-38DF-0847-BF41-C525D2991F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC82D3E-0B2C-2943-8B1C-185EF01C8183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="41">
   <si>
     <t>s2cDNADate</t>
   </si>
@@ -528,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E35"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,25 +646,25 @@
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
@@ -672,25 +672,25 @@
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
@@ -704,7 +704,7 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -713,10 +713,10 @@
         <v>40</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
@@ -730,7 +730,7 @@
         <v>40</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -739,10 +739,10 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -750,25 +750,25 @@
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>11</v>
@@ -776,25 +776,25 @@
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
       <c r="E10" t="s">
         <v>40</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
@@ -802,25 +802,25 @@
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
@@ -828,25 +828,25 @@
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>11</v>
@@ -854,22 +854,22 @@
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
@@ -880,25 +880,25 @@
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
       </c>
       <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>11</v>
@@ -906,25 +906,25 @@
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>11</v>
@@ -932,25 +932,25 @@
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>11</v>
@@ -958,25 +958,25 @@
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>11</v>
@@ -984,25 +984,25 @@
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>11</v>
@@ -1010,25 +1010,25 @@
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
       <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>11</v>
@@ -1036,25 +1036,25 @@
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>11</v>
@@ -1062,25 +1062,25 @@
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>11</v>
@@ -1094,7 +1094,7 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1103,10 +1103,10 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>11</v>
@@ -1114,25 +1114,25 @@
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>11</v>
@@ -1146,7 +1146,7 @@
         <v>40</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1155,10 +1155,10 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>11</v>
@@ -1166,25 +1166,25 @@
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>11</v>
@@ -1192,25 +1192,25 @@
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>11</v>
@@ -1218,25 +1218,25 @@
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>11</v>
@@ -1244,25 +1244,25 @@
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="F28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>11</v>
@@ -1270,25 +1270,25 @@
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
       </c>
       <c r="F29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>11</v>
@@ -1296,25 +1296,25 @@
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
       </c>
       <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
         <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>11</v>
@@ -1322,22 +1322,22 @@
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>40</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -1348,25 +1348,25 @@
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
       </c>
       <c r="F32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>11</v>
@@ -1380,7 +1380,7 @@
         <v>40</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -1389,10 +1389,10 @@
         <v>40</v>
       </c>
       <c r="F33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>11</v>
@@ -1406,7 +1406,7 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -1415,38 +1415,12 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/library/library_3275.xlsx
+++ b/library/library_3275.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC82D3E-0B2C-2943-8B1C-185EF01C8183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FF94F-974D-684F-BEEB-676E12260989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14080" yWindow="460" windowWidth="16380" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>10.30.18</t>
   </si>
   <si>
-    <t>11.2.18</t>
-  </si>
-  <si>
     <t>TACTCTA</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>11.02.18</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -597,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -606,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -623,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -632,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -649,7 +649,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
@@ -675,7 +675,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -684,13 +684,13 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
@@ -701,7 +701,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -710,13 +710,13 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
@@ -727,7 +727,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -736,13 +736,13 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -753,22 +753,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -788,13 +788,13 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
@@ -805,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -814,13 +814,13 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
@@ -831,22 +831,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>11</v>
@@ -857,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -866,13 +866,13 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>11</v>
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -892,13 +892,13 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>11</v>
@@ -909,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -918,13 +918,13 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>11</v>
@@ -935,22 +935,22 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>11</v>
@@ -961,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -970,13 +970,13 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>11</v>
@@ -987,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -996,13 +996,13 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>11</v>
@@ -1013,22 +1013,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>11</v>
@@ -1039,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -1048,13 +1048,13 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>11</v>
@@ -1065,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>21</v>
@@ -1074,13 +1074,13 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>11</v>
@@ -1091,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>22</v>
@@ -1100,13 +1100,13 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22">
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>11</v>
@@ -1117,22 +1117,22 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23">
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>11</v>
@@ -1143,22 +1143,22 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24">
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>11</v>
@@ -1169,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -1178,13 +1178,13 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25">
         <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>26</v>
@@ -1204,13 +1204,13 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26">
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>11</v>
@@ -1221,22 +1221,22 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27">
         <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>11</v>
@@ -1247,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>28</v>
@@ -1256,13 +1256,13 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28">
         <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>11</v>
@@ -1273,7 +1273,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>29</v>
@@ -1282,13 +1282,13 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29">
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>11</v>
@@ -1299,22 +1299,22 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30">
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>11</v>
@@ -1325,7 +1325,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <v>31</v>
@@ -1334,13 +1334,13 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31">
         <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>11</v>
@@ -1351,16 +1351,16 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32">
         <v>32</v>
@@ -1377,22 +1377,22 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33">
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>11</v>
@@ -1403,22 +1403,22 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>11</v>

--- a/library/library_3275.xlsx
+++ b/library/library_3275.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FF94F-974D-684F-BEEB-676E12260989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7356D685-8FA3-C447-A12C-8737E6C14C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14080" yWindow="460" windowWidth="16380" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6880" yWindow="460" windowWidth="26720" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
   <si>
     <t>s2cDNADate</t>
   </si>
@@ -528,15 +528,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1424,6 +1430,84 @@
         <v>11</v>
       </c>
     </row>
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/library/library_3275.xlsx
+++ b/library/library_3275.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7356D685-8FA3-C447-A12C-8737E6C14C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1335FC8-94BE-2641-86F7-0C3321D68FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="460" windowWidth="26720" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19920" yWindow="460" windowWidth="13680" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="41">
   <si>
     <t>s2cDNADate</t>
   </si>
@@ -171,12 +171,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB767FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -206,12 +212,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,11 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="E39" activeCellId="1" sqref="B39:B40 E39:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1508,6 +1518,84 @@
         <v>11</v>
       </c>
     </row>
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/library/library_3275.xlsx
+++ b/library/library_3275.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1335FC8-94BE-2641-86F7-0C3321D68FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E469E0-CEE1-A841-B919-C4CDDE25ADF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19920" yWindow="460" windowWidth="13680" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="41">
   <si>
     <t>s2cDNADate</t>
   </si>
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -162,30 +162,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB767FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -193,37 +179,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" activeCellId="1" sqref="B39:B40 E39:E40"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -555,34 +516,33 @@
     <col min="8" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -604,11 +564,11 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -630,11 +590,11 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -656,11 +616,11 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -682,11 +642,11 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -708,11 +668,11 @@
       <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -734,11 +694,11 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -760,11 +720,11 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -786,11 +746,11 @@
       <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -812,11 +772,11 @@
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -838,11 +798,11 @@
       <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -864,11 +824,11 @@
       <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -890,11 +850,11 @@
       <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -916,11 +876,11 @@
       <c r="G14" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -942,11 +902,11 @@
       <c r="G15" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -968,11 +928,11 @@
       <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -994,11 +954,11 @@
       <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1020,11 +980,11 @@
       <c r="G18" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1046,11 +1006,11 @@
       <c r="G19" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1072,11 +1032,11 @@
       <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1098,11 +1058,11 @@
       <c r="G21" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1124,11 +1084,11 @@
       <c r="G22" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1150,11 +1110,11 @@
       <c r="G23" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1176,11 +1136,11 @@
       <c r="G24" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1202,11 +1162,11 @@
       <c r="G25" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1228,11 +1188,11 @@
       <c r="G26" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1254,11 +1214,11 @@
       <c r="G27" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1280,11 +1240,11 @@
       <c r="G28" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1306,11 +1266,11 @@
       <c r="G29" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1332,11 +1292,11 @@
       <c r="G30" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1358,11 +1318,11 @@
       <c r="G31" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1384,11 +1344,11 @@
       <c r="G32" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1410,11 +1370,11 @@
       <c r="G33" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1436,11 +1396,11 @@
       <c r="G34" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1462,11 +1422,11 @@
       <c r="G35" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1488,11 +1448,11 @@
       <c r="G36" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1514,11 +1474,11 @@
       <c r="G37" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1537,15 +1497,15 @@
       <c r="F38">
         <v>38</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
@@ -1554,7 +1514,7 @@
       <c r="C39">
         <v>39</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>13</v>
       </c>
       <c r="E39" t="s">
@@ -1563,15 +1523,15 @@
       <c r="F39">
         <v>39</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
@@ -1580,7 +1540,7 @@
       <c r="C40">
         <v>40</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>40</v>
       </c>
       <c r="E40" t="s">
@@ -1589,10 +1549,36 @@
       <c r="F40">
         <v>40</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s">
         <v>11</v>
       </c>
     </row>
